--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4744744744744745</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08242777475346154</v>
+        <v>0.08240006974584603</v>
       </c>
       <c r="J2" t="n">
-        <v>1073.899791972962</v>
+        <v>1063.374214232982</v>
       </c>
       <c r="K2" t="n">
-        <v>1568564.012196235</v>
+        <v>1529244.288016801</v>
       </c>
       <c r="L2" t="n">
-        <v>1252.423256010617</v>
+        <v>1236.626171491127</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7083602315094046</v>
+        <v>0.7156708641438665</v>
       </c>
     </row>
   </sheetData>
